--- a/OrangeHRM2/Orange HRM2 data.xlsx
+++ b/OrangeHRM2/Orange HRM2 data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\eclipse-workspace\OrangeHRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\eclipse-workspace\OrangeHRM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B6CA70-0067-4CDD-9364-D2E471A4FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D1D32A-5068-4484-9FA3-6DF013DB75A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="3876" windowWidth="12756" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/OrangeHRM2/Orange HRM2 data.xlsx
+++ b/OrangeHRM2/Orange HRM2 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\eclipse-workspace\OrangeHRM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D1D32A-5068-4484-9FA3-6DF013DB75A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31488F-A176-4F03-9834-D8B55D6A31CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9636" yWindow="3876" windowWidth="12756" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,7 +386,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,7 +399,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -425,6 +436,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9A8BE8C9-832B-406C-8B05-2E4B4B445EE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>